--- a/data/p4_rm.xlsx
+++ b/data/p4_rm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Proposal /"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Proposal /proposal_measures/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19ED5BCA-D6D4-734C-9008-704975122CDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850FA4EA-C929-9045-9FC2-43439D52519F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="2460" windowWidth="26440" windowHeight="14260" xr2:uid="{9D88F058-D412-FD4D-AB92-40F3932BD656}"/>
   </bookViews>
@@ -38,10 +38,10 @@
     <t>session</t>
   </si>
   <si>
-    <t>effort</t>
+    <t>help</t>
   </si>
   <si>
-    <t>help</t>
+    <t>motivation</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -406,10 +406,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">

--- a/data/p4_rm.xlsx
+++ b/data/p4_rm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Proposal /proposal_measures/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850FA4EA-C929-9045-9FC2-43439D52519F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19F1FE8-B648-6842-9B78-972A5A622277}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="2460" windowWidth="26440" windowHeight="14260" xr2:uid="{9D88F058-D412-FD4D-AB92-40F3932BD656}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <t>help</t>
   </si>
   <si>
-    <t>motivation</t>
+    <t>use</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -414,21 +414,21 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -436,10 +436,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -447,10 +447,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -458,13 +458,13 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
